--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2C859CE7-3202-483C-920F-DD9D95816BBE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CE573-F04C-4C72-AE63-451D5FD436D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="15360"/>
+    <workbookView xWindow="0" yWindow="15990" windowWidth="19095" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NormalMonthly" r:id="rId1" sheetId="1"/>
-    <sheet name="NormalWeekly" r:id="rId2" sheetId="13"/>
-    <sheet name="MonthlyIntoTwo" r:id="rId3" sheetId="14"/>
-    <sheet name="MonthlyAndWeekly" r:id="rId4" sheetId="15"/>
+    <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
+    <sheet name="NormlMonthlyEPSReport" sheetId="16" r:id="rId2"/>
+    <sheet name="NormalMonthlyVarianceReport" sheetId="17" r:id="rId3"/>
+    <sheet name="NormalWeekly" sheetId="13" r:id="rId4"/>
+    <sheet name="MonthlyIntoTwo" sheetId="14" r:id="rId5"/>
+    <sheet name="MonthlyAndWeekly" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="91">
-  <si>
-    <t>ColumnHeading</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
   <si>
-    <t>AttachableEarnings</t>
-  </si>
-  <si>
     <t>NetPay</t>
   </si>
   <si>
@@ -58,9 +54,6 @@
     <t>TEST REMARKS</t>
   </si>
   <si>
-    <t xml:space="preserve"> PAY SUMMARY</t>
-  </si>
-  <si>
     <t>PAY DETAIL 1</t>
   </si>
   <si>
@@ -88,9 +81,6 @@
     <t>TypeStudentLoan</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 140</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -292,25 +282,74 @@
     <t>Payrun April-2019</t>
   </si>
   <si>
-    <t>Payrun May-2019</t>
-  </si>
-  <si>
     <t>GBP 120,111.84</t>
+  </si>
+  <si>
+    <t>AprilEPS Report</t>
+  </si>
+  <si>
+    <t>ApprenticeshiplevyPayBillThisPeriod</t>
+  </si>
+  <si>
+    <t>ApprenticeshiplevyPayBillToDate</t>
+  </si>
+  <si>
+    <t>ApprenticeshiplevyGrossToDate</t>
+  </si>
+  <si>
+    <t>ApprenticeshipAllowanceToDate</t>
+  </si>
+  <si>
+    <t>ApprenticeshipLevyPaidToDate</t>
+  </si>
+  <si>
+    <t>ApprenticeshipLevyThisMonth</t>
+  </si>
+  <si>
+    <t>GBP 15,000.00</t>
+  </si>
+  <si>
+    <t>RTI</t>
+  </si>
+  <si>
+    <t>ApprenticeshiplevyPaidThisPeriod</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>PayPeriod</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>DONT TOUCH Apprenticeship Levy One</t>
+  </si>
+  <si>
+    <t>LevyAllowanceAmount</t>
+  </si>
+  <si>
+    <t>LevyDueYearToDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,28 +500,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -499,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -548,178 +570,180 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="17" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="20" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -741,10 +765,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -908,21 +932,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -939,7 +963,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -993,46 +1017,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.3203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.09765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.11328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="2"/>
@@ -1040,27 +1064,27 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2"/>
@@ -1068,27 +1092,27 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="2"/>
@@ -1096,25 +1120,25 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="2"/>
@@ -1179,105 +1203,34 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row customHeight="1" ht="44.25" r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:12" ht="44.25" customHeight="1">
       <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:12">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="H13" s="15"/>
       <c r="I13" s="2"/>
       <c r="J13" s="18"/>
@@ -1285,17 +1238,203 @@
       <c r="L13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="44"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1304,187 +1443,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="48" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:14">
-      <c r="A2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="K3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="M3" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="F4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="3" spans="1:14">
-      <c r="A3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="H4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="M4" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:14">
-      <c r="A4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1549,182 +1688,182 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
     </row>
-    <row customHeight="1" ht="45.75" r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="45.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="K10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="L10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row customHeight="1" ht="26.25" r="11" spans="1:14">
-      <c r="A11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="33.75" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="42" t="s">
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="33.75" r="12" spans="1:14">
-      <c r="A12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="40" t="s">
+      <c r="H12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>18</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N12" s="27"/>
     </row>
-    <row customHeight="1" ht="24.75" r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="24.75" customHeight="1">
       <c r="A13" s="33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L13" s="42"/>
-      <c r="M13" s="59" t="s">
-        <v>23</v>
+      <c r="M13" s="58" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1732,13 +1871,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -1747,568 +1886,568 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="48" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="K1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="M1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="N1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="O1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="P1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="R1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="S1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="U1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="V1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="29" t="s">
+      <c r="F2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="I2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="J2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:23">
-      <c r="A2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="V2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="3" spans="1:23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="K3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>60</v>
-      </c>
       <c r="Q3" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S3" s="54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T3" s="54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U3" s="54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V3" s="54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W3" s="27"/>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="26.25" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T4" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U4" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V4" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
     </row>
-    <row ht="30" r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="30">
       <c r="A10" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="G10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="K10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="M10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="N10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="O10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="P10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="Q10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="R10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="S10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="U10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="V10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:23" ht="27.75" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="29" t="s">
+      <c r="P11" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.75" r="11" spans="1:23">
-      <c r="A11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="W11" s="27"/>
     </row>
-    <row customHeight="1" ht="30" r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="30" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P12" s="44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R12" s="48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T12" s="54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U12" s="54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V12" s="54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="13" spans="1:23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="K13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P13" s="44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S13" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T13" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U13" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V13" s="48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2317,18 +2456,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId1" ref="J2" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId2" ref="P2" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId3" ref="J11" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId4" ref="P11" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
+    <hyperlink ref="P2" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
+    <hyperlink ref="J11" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
+    <hyperlink ref="P11" r:id="rId4" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2337,6 +2476,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CE573-F04C-4C72-AE63-451D5FD436D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55033B97-1E96-4183-B32E-2EC7A712955F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15990" windowWidth="19095" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18510" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="102">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -719,9 +719,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -735,6 +732,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1020,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1125,19 +1135,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="27"/>
@@ -1247,21 +1257,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1">
@@ -1274,25 +1285,25 @@
       <c r="C1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1303,7 +1314,7 @@
       <c r="B2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1318,13 +1329,13 @@
       <c r="G2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="60" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1333,26 +1344,58 @@
       <c r="B3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="C4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,11 +1413,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -1384,16 +1427,16 @@
       <c r="B1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1402,8 +1445,8 @@
         <v>4</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="46" t="s">
         <v>99</v>
       </c>
@@ -1691,16 +1734,16 @@
         <v>63</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="4" t="s">
         <v>27</v>
       </c>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55033B97-1E96-4183-B32E-2EC7A712955F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D5194-0FCC-44CF-8F91-34F4CDD0C294}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18510" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="19140" windowWidth="19095" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="104">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Employer</t>
   </si>
   <si>
-    <t>PayPeriod</t>
-  </si>
-  <si>
     <t>Variance</t>
   </si>
   <si>
@@ -331,18 +328,34 @@
   </si>
   <si>
     <t>LevyDueYearToDate</t>
+  </si>
+  <si>
+    <t>PayrollPeriod</t>
+  </si>
+  <si>
+    <t>April-2019</t>
+  </si>
+  <si>
+    <t>GBP 250.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,9 +586,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -586,166 +599,169 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1135,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="68" t="s">
+      <c r="E4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="66" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="27"/>
@@ -1257,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>87</v>
@@ -1298,7 +1314,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="61" t="s">
         <v>91</v>
@@ -1365,26 +1381,26 @@
       <c r="I3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="67" t="s">
+      <c r="C4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="44" t="s">
@@ -1408,15 +1424,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1431,13 +1448,13 @@
         <v>95</v>
       </c>
       <c r="D1" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="60" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1">
@@ -1446,11 +1463,15 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="44"/>
+      <c r="D2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1">
       <c r="A3" s="3"/>
@@ -1470,7 +1491,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1734,16 +1755,16 @@
         <v>63</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="4" t="s">
         <v>27</v>
       </c>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D5194-0FCC-44CF-8F91-34F4CDD0C294}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5BF2F6C0-5E6A-4D0D-854D-70B20E680E2B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19140" windowWidth="19095" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="21660"/>
   </bookViews>
   <sheets>
-    <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
-    <sheet name="NormlMonthlyEPSReport" sheetId="16" r:id="rId2"/>
-    <sheet name="NormalMonthlyVarianceReport" sheetId="17" r:id="rId3"/>
-    <sheet name="NormalWeekly" sheetId="13" r:id="rId4"/>
-    <sheet name="MonthlyIntoTwo" sheetId="14" r:id="rId5"/>
-    <sheet name="MonthlyAndWeekly" sheetId="15" r:id="rId6"/>
+    <sheet name="NormalMonthly" r:id="rId1" sheetId="1"/>
+    <sheet name="NormlMonthlyEPSReport" r:id="rId2" sheetId="16"/>
+    <sheet name="NormalMonthlyVarianceReport" r:id="rId3" sheetId="17"/>
+    <sheet name="NormalWeekly" r:id="rId4" sheetId="13"/>
+    <sheet name="MonthlyIntoTwo" r:id="rId5" sheetId="14"/>
+    <sheet name="MonthlyAndWeekly" r:id="rId6" sheetId="15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -337,18 +337,34 @@
   </si>
   <si>
     <t>GBP 250.00</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,6 +534,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -534,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -583,193 +623,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="76">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="14" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="20" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="21" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="21" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="22" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="23" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="17" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -791,10 +847,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -958,21 +1014,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -989,7 +1045,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1043,7 +1099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1052,17 +1108,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:12">
       <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
@@ -1090,7 +1146,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:12">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1174,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:12">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1202,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:12">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1235,28 +1291,28 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="10" spans="1:12">
       <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:12">
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:12">
       <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:12">
       <c r="H13" s="15"/>
       <c r="I13" s="2"/>
       <c r="J13" s="18"/>
@@ -1264,34 +1320,34 @@
       <c r="L13" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1323,7 +1379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="3" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
         <v>83</v>
@@ -1385,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="64" t="s">
@@ -1414,91 +1470,127 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.3203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.43359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.9765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="3" spans="1:7">
       <c r="A3" s="3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" r:id="rId1" ref="E2" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1507,28 +1599,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="1" spans="1:14">
       <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
@@ -1569,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:14">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="3" spans="1:14">
       <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="4" spans="1:14">
       <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
@@ -1755,23 +1847,23 @@
         <v>63</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
     </row>
-    <row r="10" spans="1:14" ht="45.75" customHeight="1">
+    <row customHeight="1" ht="45.75" r="10" spans="1:14">
       <c r="A10" s="33" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="11" spans="1:14">
       <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="12" spans="1:14">
       <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1985,7 @@
       </c>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:14" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="13" spans="1:14">
       <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
@@ -1935,13 +2027,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -1950,33 +2042,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="1" spans="1:23">
       <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
@@ -2044,7 +2136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:23">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2204,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="3" spans="1:23">
       <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
         <v>54</v>
@@ -2179,7 +2271,7 @@
       </c>
       <c r="W3" s="27"/>
     </row>
-    <row r="4" spans="1:23" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="4" spans="1:23">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35" t="s">
@@ -2247,7 +2339,7 @@
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="10" spans="1:23" ht="30">
+    <row ht="30" r="10" spans="1:23">
       <c r="A10" s="16" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +2407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="11" spans="1:23">
       <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2476,7 @@
       </c>
       <c r="W11" s="27"/>
     </row>
-    <row r="12" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="12" spans="1:23">
       <c r="A12" s="47"/>
       <c r="B12" s="12" t="s">
         <v>54</v>
@@ -2450,7 +2542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="13" spans="1:23">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35" t="s">
@@ -2520,18 +2612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
-    <hyperlink ref="P2" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
-    <hyperlink ref="J11" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
-    <hyperlink ref="P11" r:id="rId4" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId1" ref="J2" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId2" ref="P2" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId3" ref="J11" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
+    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId4" ref="P11" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,6 +2632,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5BF2F6C0-5E6A-4D0D-854D-70B20E680E2B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE0B1E-A775-4B75-946C-9EA85AD38655}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="21660"/>
+    <workbookView xWindow="0" yWindow="26700" windowWidth="19095" windowHeight="7275" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NormalMonthly" r:id="rId1" sheetId="1"/>
-    <sheet name="NormlMonthlyEPSReport" r:id="rId2" sheetId="16"/>
-    <sheet name="NormalMonthlyVarianceReport" r:id="rId3" sheetId="17"/>
-    <sheet name="NormalWeekly" r:id="rId4" sheetId="13"/>
-    <sheet name="MonthlyIntoTwo" r:id="rId5" sheetId="14"/>
-    <sheet name="MonthlyAndWeekly" r:id="rId6" sheetId="15"/>
+    <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
+    <sheet name="NormlMonthlyEPSReport" sheetId="16" r:id="rId2"/>
+    <sheet name="NormalMonthlyVarianceReport" sheetId="17" r:id="rId3"/>
+    <sheet name="NormalMayMonthly" sheetId="19" r:id="rId4"/>
+    <sheet name="NormalMayMonthEPSReport" sheetId="18" r:id="rId5"/>
+    <sheet name="NormalWeekly" sheetId="13" r:id="rId6"/>
+    <sheet name="MonthlyIntoTwo" sheetId="14" r:id="rId7"/>
+    <sheet name="MonthlyAndWeekly" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="150">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -342,22 +344,158 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t/>
+    <t>ActualLevyAllowanceAmount</t>
+  </si>
+  <si>
+    <t>ExpectedLevyAllowanceAmount</t>
+  </si>
+  <si>
+    <t>TestResmarksForLevyAllowanceAmount</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshiplevyPayBillThisPeriod</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshiplevyPayBillThisPeriod</t>
+  </si>
+  <si>
+    <t>TestResmarksForApprenticeshiplevyPayBillThisPeriod</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshiplevyPayBillToDate</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshiplevyPayBillToDate</t>
+  </si>
+  <si>
+    <t>TestResmarksForApprenticeshiplevyPayBillToDate</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshiplevyGrossToDate</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshiplevyGrossToDate</t>
+  </si>
+  <si>
+    <t>TestResmarksForApprenticeshiplevyGrossToDate</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshipAllowanceToDate</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshipAllowanceToDate</t>
+  </si>
+  <si>
+    <t>ExpectedLevyDueYearToDate</t>
+  </si>
+  <si>
+    <t>ActualLevyDueYearToDate</t>
+  </si>
+  <si>
+    <t>TestResmarksForApprenticeshipAllowanceToDate</t>
+  </si>
+  <si>
+    <t>TestRemarksForActualLevyDueYearToDate</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshipLevyPaidToDate</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshipLevyPaidToDate</t>
+  </si>
+  <si>
+    <t>TestRemarksForApprenticeshipLevyPaidToDate</t>
+  </si>
+  <si>
+    <t>ExpectedApprenticeshipLevyThisMonth</t>
+  </si>
+  <si>
+    <t>ActualApprenticeshipLevyThisMonth</t>
+  </si>
+  <si>
+    <t>TestRemarksForActualApprenticeshipLevyThisMonth</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 787</t>
+  </si>
+  <si>
+    <t>ExpectedEstmtdLevyAlwnceAprnmentThisPeriod</t>
+  </si>
+  <si>
+    <t>ActualEstmtdLevyAlwnceAprnmentThisPeriod</t>
+  </si>
+  <si>
+    <t>TestResmarksForEstmtdLevyAlwnceAprnmentThisPeriod</t>
+  </si>
+  <si>
+    <t>ExpectedAprntshipLevyPayBill</t>
+  </si>
+  <si>
+    <t>ActualAprntshipLevyPayBill</t>
+  </si>
+  <si>
+    <t>TestResmarksForAprntshipLevyPayBill</t>
+  </si>
+  <si>
+    <t>ExpectedAprntshipLevyPayGross</t>
+  </si>
+  <si>
+    <t>ActualAprntshipLevyPayGross</t>
+  </si>
+  <si>
+    <t>TestResmarksForAprntshipLevyPayGross</t>
+  </si>
+  <si>
+    <t>ExpectedAprntshipLevyThisPeriod</t>
+  </si>
+  <si>
+    <t>ActualAprntshipLevyThisPeriod</t>
+  </si>
+  <si>
+    <t>TestResmarksForAprntshipLevyThisPeriod</t>
+  </si>
+  <si>
+    <t>ExpectedTotalHMRCPymtsWithLevy</t>
+  </si>
+  <si>
+    <t>ActualTotalHMRCPymtsWithLevy</t>
+  </si>
+  <si>
+    <t>TestResmarksForTotalHMRCPymtsWithLevy</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>GBP 300,000.00</t>
+  </si>
+  <si>
+    <t>GBP 177,093.26</t>
+  </si>
+  <si>
+    <t>GBP 177,000.26</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,30 +673,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -574,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -624,208 +738,221 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="19" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="18" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="20" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="21" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="21" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="22" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="23" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="16" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="17" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -847,10 +974,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1014,21 +1141,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1045,7 +1172,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1099,26 +1226,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>84</v>
       </c>
@@ -1146,7 +1273,7 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1301,7 @@
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1329,7 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1285,34 +1412,116 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row customHeight="1" ht="44.25" r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:12">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:12">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:12">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="H13" s="15"/>
       <c r="I13" s="2"/>
       <c r="J13" s="18"/>
@@ -1320,34 +1529,34 @@
       <c r="L13" s="18"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27.75" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1379,7 +1588,7 @@
         <v>92</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="30.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.25" r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
         <v>83</v>
@@ -1441,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.75" r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="64" t="s">
@@ -1470,13 +1679,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,16 +1694,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.3203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.43359375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="36.07421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.9765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27.75" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1517,7 +1726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1540,7 +1749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.75" r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="27.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="25" t="s">
         <v>83</v>
@@ -1552,13 +1761,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1571,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>104</v>
@@ -1582,45 +1791,404 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" r:id="rId1" ref="E2" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4435916-F30A-4985-AEFD-7D6BF5AC5F5A}">
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBCFF4F-64E6-4E05-9022-85E62D806207}">
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="44" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="42" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="46.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="24">
+      <c r="A2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+    </row>
+    <row r="3" spans="1:25" ht="24">
+      <c r="A3" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="48" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
@@ -1661,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +2270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="30" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
@@ -1743,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
@@ -1847,23 +2415,23 @@
         <v>63</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
     </row>
-    <row customHeight="1" ht="45.75" r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="45.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>10</v>
       </c>
@@ -1904,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="26.25" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +2513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +2553,7 @@
       </c>
       <c r="N12" s="27"/>
     </row>
-    <row customHeight="1" ht="24.75" r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="24.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
@@ -2027,13 +2595,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:J9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -2042,33 +2610,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="48" r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="48" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
@@ -2136,7 +2704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:23">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="30" customHeight="1">
       <c r="A3" s="47"/>
       <c r="B3" s="12" t="s">
         <v>54</v>
@@ -2271,7 +2839,7 @@
       </c>
       <c r="W3" s="27"/>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:23">
+    <row r="4" spans="1:23" ht="26.25" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="35" t="s">
@@ -2339,7 +2907,7 @@
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
     </row>
-    <row ht="30" r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="30">
       <c r="A10" s="16" t="s">
         <v>63</v>
       </c>
@@ -2407,7 +2975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.75" r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="27.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +3044,7 @@
       </c>
       <c r="W11" s="27"/>
     </row>
-    <row customHeight="1" ht="30" r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="30" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="12" t="s">
         <v>54</v>
@@ -2542,7 +3110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="30" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="35" t="s">
@@ -2612,18 +3180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId1" ref="J2" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId2" ref="P2" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId3" ref="J11" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" r:id="rId4" ref="P11" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{5743ECA8-3E58-43BC-80BC-22C0039821AA}"/>
+    <hyperlink ref="P2" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{23B43475-4FD8-46A9-9FCE-9704EEE21610}"/>
+    <hyperlink ref="J11" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{3BE68F58-5BE7-409E-A872-E6A5719CC55E}"/>
+    <hyperlink ref="P11" r:id="rId4" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a051q000008hkrjAAA/view" xr:uid="{F1E7F2B9-33DB-45A9-9C51-B27358C5DCED}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,6 +3200,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE0B1E-A775-4B75-946C-9EA85AD38655}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAADC2-1F30-4846-A2F5-DC143650158A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="26700" windowWidth="19095" windowHeight="7275" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="28590" windowWidth="19095" windowHeight="7275" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
     <sheet name="NormlMonthlyEPSReport" sheetId="16" r:id="rId2"/>
     <sheet name="NormalMonthlyVarianceReport" sheetId="17" r:id="rId3"/>
     <sheet name="NormalMayMonthly" sheetId="19" r:id="rId4"/>
-    <sheet name="NormalMayMonthEPSReport" sheetId="18" r:id="rId5"/>
-    <sheet name="NormalWeekly" sheetId="13" r:id="rId6"/>
-    <sheet name="MonthlyIntoTwo" sheetId="14" r:id="rId7"/>
-    <sheet name="MonthlyAndWeekly" sheetId="15" r:id="rId8"/>
+    <sheet name="NormlMayMonthlyEPSReport" sheetId="20" r:id="rId5"/>
+    <sheet name="NormlMonthlyMayEPSReportNew" sheetId="18" r:id="rId6"/>
+    <sheet name="NormalWeekly" sheetId="13" r:id="rId7"/>
+    <sheet name="MonthlyIntoTwo" sheetId="14" r:id="rId8"/>
+    <sheet name="MonthlyAndWeekly" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="150">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -1539,7 +1540,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1688,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1988,11 +1989,160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DB0DA-4805-40D5-BDE2-905EDA92384E}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBCFF4F-64E6-4E05-9022-85E62D806207}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2157,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -2600,7 +2750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
@@ -3190,7 +3340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818AEFD-7BCD-4CD5-AA38-1E127344410C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5173D6B7-31C7-4782-B17F-885E0F70A461}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{720A5FDC-84BC-4EED-8E14-6C30EBA96DA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="34890"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="36150"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" r:id="rId1" sheetId="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="66">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>DO NOT TOUCH AUTOMATION EMP 789</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 790</t>
+  </si>
+  <si>
+    <t>GBP 96,000.00</t>
+  </si>
+  <si>
+    <t>GBP 57,627.54</t>
   </si>
 </sst>
 </file>
@@ -1561,13 +1570,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="36.140625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="27.75" r="1" spans="1:7">
@@ -1656,7 +1665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="25.5" r="9" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -1713,11 +1722,15 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
@@ -1728,13 +1741,17 @@
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row ht="25.5" r="17" spans="1:7">
+      <c r="G12" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
@@ -1828,7 +1845,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1842,7 +1859,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="22.7578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="25.5" r="1" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
@@ -1888,7 +1905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row ht="24" r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1958,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row ht="25.5" r="9" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>14</v>
@@ -1987,31 +2004,51 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row ht="24" r="11" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row customHeight="1" ht="21" r="12" spans="1:7">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row ht="25.5" r="17" spans="1:7">
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +2094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row ht="24" r="19" spans="1:7">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{720A5FDC-84BC-4EED-8E14-6C30EBA96DA0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF936AC5-FE44-4680-B3D8-529D0F57840D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="36150"/>
+    <workbookView xWindow="0" yWindow="37410" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NormalMonthly" r:id="rId1" sheetId="1"/>
-    <sheet name="NormlMonthlyEPSReport" r:id="rId2" sheetId="16"/>
-    <sheet name="NormalMonthlyVarianceReport" r:id="rId3" sheetId="17"/>
-    <sheet name="NormalWeeklyDraft" r:id="rId4" sheetId="18"/>
-    <sheet name="NormlWeeklyEPSReport" r:id="rId5" sheetId="19"/>
-    <sheet name="NormalWeeklyVarianceReport" r:id="rId6" sheetId="20"/>
+    <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
+    <sheet name="NormlMonthlyEPSReport" sheetId="16" r:id="rId2"/>
+    <sheet name="NormalMonthlyVarianceReport" sheetId="17" r:id="rId3"/>
+    <sheet name="NormalWeeklyDraft" sheetId="18" r:id="rId4"/>
+    <sheet name="NormlWeeklyEPSReport" sheetId="19" r:id="rId5"/>
+    <sheet name="NormalWeeklyVarianceReport" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -229,10 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,30 +351,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -429,141 +402,131 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="13" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="14" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="10" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -585,10 +548,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -752,21 +715,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -783,7 +746,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -837,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -846,17 +809,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="11" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -884,7 +847,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -912,7 +875,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -940,7 +903,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="24" r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="24">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="24" r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="24">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row ht="24" r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="20" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="24" r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1161,13 +1124,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1176,19 +1139,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27.75" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="30.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.25" r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="21" t="s">
         <v>18</v>
@@ -1282,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.75" r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="31" t="s">
@@ -1342,7 +1305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="24" r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="24">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="24" r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="24">
       <c r="A11" s="3"/>
       <c r="B11" s="21" t="s">
         <v>40</v>
@@ -1464,7 +1427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="24" r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="24">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row ht="24" r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="24">
       <c r="A19" s="3"/>
       <c r="B19" s="21" t="s">
         <v>18</v>
@@ -1555,13 +1518,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BF338-BB29-4383-B0E7-D7CB9ABEED14}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,16 +1533,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27.75" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.75" r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="27.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="21" t="s">
         <v>18</v>
@@ -1688,7 +1651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row ht="24" r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="24" r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="3"/>
       <c r="B11" s="21" t="s">
         <v>18</v>
@@ -1774,7 +1737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row ht="24" r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="24" r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="3"/>
       <c r="B19" s="21" t="s">
         <v>18</v>
@@ -1831,32 +1794,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" r:id="rId1" ref="E2" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" r:id="rId2" ref="E10" xr:uid="{1A831535-B06E-4E09-A18E-2ECB178C7898}"/>
-    <hyperlink display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" r:id="rId3" ref="E18" xr:uid="{1AAEF4A6-1D2B-48FB-ACE0-6EEDF4E4AD94}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{88FA9799-3B15-4220-ADE4-B1838A2BE079}"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{1A831535-B06E-4E09-A18E-2ECB178C7898}"/>
+    <hyperlink ref="E18" r:id="rId3" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{1AAEF4A6-1D2B-48FB-ACE0-6EEDF4E4AD94}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.3203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.09765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.91796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.03125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.11328125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7578125" collapsed="true"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1882,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row ht="24" r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="24">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="26.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -2004,7 +1967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="24" r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +1990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="32.25" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>1</v>
       </c>
@@ -2094,7 +2057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="24" r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -2119,12 +2082,12 @@
       <c r="G20" s="33"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1391CEC-BA7C-45A2-A7AF-2E9D25AA5310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1391CEC-BA7C-45A2-A7AF-2E9D25AA5310}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,12 +2096,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF927BCE-119A-4B7D-B876-351FC3E893F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF927BCE-119A-4B7D-B876-351FC3E893F2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,6 +2110,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF936AC5-FE44-4680-B3D8-529D0F57840D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480EC95-E67F-42D0-B143-3D9521247153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="37410" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="41820" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="83">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -223,18 +223,80 @@
   </si>
   <si>
     <t>GBP 57,627.54</t>
+  </si>
+  <si>
+    <t>GBP 72,000.00</t>
+  </si>
+  <si>
+    <t>GBP 42,533.54</t>
+  </si>
+  <si>
+    <t>Payrun Week4</t>
+  </si>
+  <si>
+    <t>GBP 312.50</t>
+  </si>
+  <si>
+    <t>GBP 48,000.00</t>
+  </si>
+  <si>
+    <t>GBP 240.00</t>
+  </si>
+  <si>
+    <t>GBP -72.50</t>
+  </si>
+  <si>
+    <t>GBP 28,876.36</t>
+  </si>
+  <si>
+    <t>GBP 360.00</t>
+  </si>
+  <si>
+    <t>GBP 47.50</t>
+  </si>
+  <si>
+    <t>GBP 43,353.22</t>
+  </si>
+  <si>
+    <t>Payrun Week5</t>
+  </si>
+  <si>
+    <t>Payrun Week6</t>
+  </si>
+  <si>
+    <t>Payrun Week7</t>
+  </si>
+  <si>
+    <t>Payrun Week8</t>
+  </si>
+  <si>
+    <t>Payrun Week9</t>
+  </si>
+  <si>
+    <t>GBP 42,532.64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,9 +467,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -421,105 +483,111 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1805,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,9 +1888,10 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
@@ -1844,8 +1913,9 @@
       <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1">
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1853,66 +1923,49 @@
         <v>62</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24">
+        <v>73</v>
+      </c>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="24">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" customHeight="1">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1920,8 +1973,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I5" s="42"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -1944,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -1955,19 +2009,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +2044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1">
+    <row r="12" spans="1:9" ht="21" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2039,22 +2093,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
@@ -2062,27 +2116,508 @@
         <v>2</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
+      <c r="A26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
+      <c r="A27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
+      <c r="A34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
+      <c r="A35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24">
+      <c r="A42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24">
+      <c r="A43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="24">
+      <c r="A50" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="24">
+      <c r="A51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24">
+      <c r="A58" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24">
+      <c r="A59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="24">
+      <c r="A66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="24">
+      <c r="A67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480EC95-E67F-42D0-B143-3D9521247153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB066C-4B34-4B60-BBF1-7EFFB31B217B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="41820" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="43080" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="82">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Payrun April-2019</t>
-  </si>
-  <si>
-    <t>GBP 120,111.84</t>
   </si>
   <si>
     <t>AprilEPS Report</t>
@@ -469,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -587,6 +584,15 @@
     </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -887,7 +893,7 @@
     <col min="8" max="8" width="21.7109375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.25" customHeight="1">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -915,7 +921,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -943,61 +949,43 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="C4" s="41"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1011,9 +999,9 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>0</v>
@@ -1034,7 +1022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24">
+    <row r="10" spans="1:13" ht="24">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -1045,19 +1033,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24">
+    </row>
+    <row r="11" spans="1:13" ht="24">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1068,19 +1056,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1091,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>0</v>
@@ -1135,16 +1123,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
@@ -1158,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>4</v>
@@ -1167,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1221,34 +1209,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1">
@@ -1259,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
@@ -1343,34 +1331,34 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="I9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24">
@@ -1378,22 +1366,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>4</v>
@@ -1408,7 +1396,7 @@
     <row r="11" spans="1:10" ht="24">
       <c r="A11" s="3"/>
       <c r="B11" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -1465,34 +1453,34 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="26" t="s">
+      <c r="I17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="28" t="s">
+      <c r="J17" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24">
@@ -1503,28 +1491,28 @@
         <v>18</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24">
@@ -1612,25 +1600,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1">
@@ -1647,13 +1635,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1">
@@ -1668,13 +1656,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1690,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>7</v>
@@ -1698,25 +1686,25 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
@@ -1733,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
@@ -1754,13 +1742,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1776,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>7</v>
@@ -1784,25 +1772,25 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24">
@@ -1819,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
@@ -1841,7 +1829,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -1856,7 +1844,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -1875,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1893,7 +1881,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -1920,22 +1908,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="43"/>
     </row>
@@ -1944,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1977,7 +1965,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>0</v>
@@ -2003,22 +1991,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24">
@@ -2026,22 +2014,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
@@ -2067,7 +2055,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>0</v>
@@ -2093,22 +2081,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
@@ -2116,22 +2104,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2157,7 +2145,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>0</v>
@@ -2183,22 +2171,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24">
@@ -2206,13 +2194,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>4</v>
@@ -2221,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2247,7 +2235,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>0</v>
@@ -2273,22 +2261,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24">
@@ -2296,22 +2284,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2337,7 +2325,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>0</v>
@@ -2363,22 +2351,22 @@
         <v>1</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="G42" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="24">
@@ -2386,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -2407,7 +2395,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>0</v>
@@ -2433,22 +2421,22 @@
         <v>1</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="G50" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="24">
@@ -2456,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -2477,7 +2465,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>0</v>
@@ -2503,22 +2491,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="G58" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24">
@@ -2526,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2547,7 +2535,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>0</v>
@@ -2573,22 +2561,22 @@
         <v>1</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="G66" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="24">
@@ -2596,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB066C-4B34-4B60-BBF1-7EFFB31B217B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2987EDD-4387-4E0D-9D3C-99152DAF786E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="43080" windowWidth="19095" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45600" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="91">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -271,6 +271,33 @@
   </si>
   <si>
     <t>GBP 42,532.64</t>
+  </si>
+  <si>
+    <t>GBP 120,111.84</t>
+  </si>
+  <si>
+    <t>GBP 360,000.00</t>
+  </si>
+  <si>
+    <t>GBP 624,000.00</t>
+  </si>
+  <si>
+    <t>GBP 3,120.00</t>
+  </si>
+  <si>
+    <t>GBP 620.00</t>
+  </si>
+  <si>
+    <t>GBP 70.00</t>
+  </si>
+  <si>
+    <t>GBP 550.00</t>
+  </si>
+  <si>
+    <t>GBP 264,000.00</t>
+  </si>
+  <si>
+    <t>GBP 1,320.00</t>
   </si>
 </sst>
 </file>
@@ -281,12 +308,19 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,9 +498,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -480,119 +514,122 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -956,11 +993,21 @@
       <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
@@ -973,11 +1020,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
@@ -1189,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470C2178-89E3-40F8-89C6-280A1D52CB08}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1863,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2611,14 +2668,239 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1391CEC-BA7C-45A2-A7AF-2E9D25AA5310}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24">
+      <c r="A11" s="3"/>
+      <c r="B11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2987EDD-4387-4E0D-9D3C-99152DAF786E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42073A-93CF-4682-B44B-86DF70957794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45600" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="46230" windowWidth="19095" windowHeight="7275" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="93">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>GBP 1,320.00</t>
+  </si>
+  <si>
+    <t>GBP 42,533.52</t>
+  </si>
+  <si>
+    <t>Week-9</t>
   </si>
 </sst>
 </file>
@@ -308,12 +314,19 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,9 +511,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -514,119 +527,125 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1641,7 +1660,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1920,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2433,22 +2452,42 @@
       <c r="B43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="C44" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="12" t="s">
@@ -2503,22 +2542,42 @@
       <c r="B51" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
+      <c r="C51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
+      <c r="C52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="12" t="s">
@@ -2573,22 +2632,42 @@
       <c r="B59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="15"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="C60" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="12" t="s">
@@ -2643,22 +2722,42 @@
       <c r="B67" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="15"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
+      <c r="C68" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2879,26 +2978,58 @@
       <c r="B11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="C12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2907,14 +3038,113 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF927BCE-119A-4B7D-B876-351FC3E893F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{6CDF882A-1087-4690-8540-99D90BE72744}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/ApprenticeshipLevy Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42073A-93CF-4682-B44B-86DF70957794}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1357E2-6F08-4786-B307-FF0D9C329FB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="46230" windowWidth="19095" windowHeight="7275" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="46860" windowWidth="19095" windowHeight="7275" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalMonthly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="95">
   <si>
     <t>AutomationEmployeeNames</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Week-9</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AprticeLevy NrmalWkly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
   </si>
 </sst>
 </file>
@@ -314,12 +320,19 @@
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,9 +524,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -527,129 +540,130 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1937,9 +1951,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE621-179E-455C-B25C-D8D6CDADA844}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -2767,10 +2784,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1391CEC-BA7C-45A2-A7AF-2E9D25AA5310}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3040,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF927BCE-119A-4B7D-B876-351FC3E893F2}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3069,7 +3089,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>35</v>
@@ -3091,8 +3111,8 @@
       <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>32</v>
+      <c r="E2" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>92</v>
@@ -3112,14 +3132,14 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
+      <c r="E3" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>42</v>
+      <c r="G3" s="48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3137,14 +3157,16 @@
       <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>7</v>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/a1L1q000000JXPHEA4/view" xr:uid="{6CDF882A-1087-4690-8540-99D90BE72744}"/>
+    <hyperlink ref="E2" r:id="rId1" display="javascript:srcUp(%27https%3A%2F%2Fxcdautomationlex--PayrolFull.cs107.my.salesforce.com%2Fa1L1q000000KDqL%3Fisdtp%3Dp1%27);" xr:uid="{C8E5DBA6-2706-408A-99C4-3337F63C06F1}"/>
+    <hyperlink ref="E3" r:id="rId2" display="javascript:srcUp(%27https%3A%2F%2Fxcdautomationlex--PayrolFull.cs107.my.salesforce.com%2Fa1L1q000000KDqL%3Fisdtp%3Dp1%27);" xr:uid="{0BE7BABA-9566-4D39-A5E3-253573B9D07B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>